--- a/tmp/data.xlsx
+++ b/tmp/data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="23">
   <si>
     <t>Nama Penyakit</t>
   </si>
@@ -79,12 +84,18 @@
   </si>
   <si>
     <t>ODGJ</t>
+  </si>
+  <si>
+    <t>Kurap</t>
+  </si>
+  <si>
+    <t>XX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,6 +159,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -195,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,9 +242,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,6 +294,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AY8"/>
+  <dimension ref="A3:AY10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,337 +536,340 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1" t="s">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1" t="s">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1" t="s">
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1" t="s">
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1" t="s">
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1" t="s">
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1" t="s">
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1" t="s">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1" t="s">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1" t="s">
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1" t="s">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1" t="s">
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1" t="s">
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1" t="s">
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1" t="s">
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1" t="s">
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1" t="s">
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1" t="s">
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1" t="s">
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1" t="s">
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1" t="s">
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1" t="s">
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AY4" s="1"/>
+      <c r="AY4" s="2"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6">
         <v>121</v>
       </c>
@@ -971,6 +1022,9 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
       <c r="B7">
         <v>123</v>
       </c>
@@ -1123,6 +1177,9 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
       <c r="B8">
         <v>124</v>
       </c>
@@ -1271,17 +1328,335 @@
         <v>0</v>
       </c>
       <c r="AY8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
     <mergeCell ref="AV3:AY3"/>
     <mergeCell ref="AV4:AW4"/>
     <mergeCell ref="AX4:AY4"/>
@@ -1291,6 +1666,12 @@
     <mergeCell ref="AN3:AQ3"/>
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
     <mergeCell ref="AB3:AE3"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
@@ -1301,20 +1682,6 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tmp/data.xlsx
+++ b/tmp/data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="21">
   <si>
     <t>Nama Penyakit</t>
   </si>
@@ -84,18 +79,12 @@
   </si>
   <si>
     <t>ODGJ</t>
-  </si>
-  <si>
-    <t>Kurap</t>
-  </si>
-  <si>
-    <t>XX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,9 +148,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -209,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,26 +228,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,23 +263,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AY10"/>
+  <dimension ref="A3:AY8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,340 +488,337 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2" t="s">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2" t="s">
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2" t="s">
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2" t="s">
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2" t="s">
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2" t="s">
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2" t="s">
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2" t="s">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2" t="s">
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2" t="s">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2" t="s">
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2" t="s">
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2" t="s">
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2" t="s">
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2" t="s">
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2" t="s">
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2" t="s">
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2" t="s">
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2" t="s">
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2" t="s">
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AY4" s="2"/>
+      <c r="AY4" s="1"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY5" s="1" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
       <c r="B6">
         <v>121</v>
       </c>
@@ -1022,9 +971,6 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
       <c r="B7">
         <v>123</v>
       </c>
@@ -1177,9 +1123,6 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
       <c r="B8">
         <v>124</v>
       </c>
@@ -1328,335 +1271,17 @@
         <v>0</v>
       </c>
       <c r="AY8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>125</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>1</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>166</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>1</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
     <mergeCell ref="AV3:AY3"/>
     <mergeCell ref="AV4:AW4"/>
     <mergeCell ref="AX4:AY4"/>
@@ -1666,12 +1291,6 @@
     <mergeCell ref="AN3:AQ3"/>
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
     <mergeCell ref="AB3:AE3"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
@@ -1682,6 +1301,20 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tmp/data.xlsx
+++ b/tmp/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>Nama Penyakit</t>
   </si>
@@ -79,19 +79,33 @@
   </si>
   <si>
     <t>ODGJ</t>
+  </si>
+  <si>
+    <t>JML</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -130,12 +144,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AY8"/>
+  <dimension ref="A3:BD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,340 +509,376 @@
     <col min="49" max="49" width="3.140625" customWidth="1"/>
     <col min="50" max="50" width="2.7109375" customWidth="1"/>
     <col min="51" max="51" width="3" customWidth="1"/>
+    <col min="52" max="52" width="2.7109375" customWidth="1"/>
+    <col min="53" max="53" width="3.28515625" customWidth="1"/>
+    <col min="54" max="54" width="3.140625" customWidth="1"/>
+    <col min="55" max="55" width="2.5703125" customWidth="1"/>
+    <col min="56" max="56" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1" t="s">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1" t="s">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1" t="s">
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1" t="s">
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1" t="s">
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1" t="s">
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1" t="s">
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1" t="s">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1" t="s">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1" t="s">
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1" t="s">
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1" t="s">
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1" t="s">
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1" t="s">
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AY4" s="1"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>121</v>
       </c>
@@ -969,8 +1029,23 @@
       <c r="AY6">
         <v>0</v>
       </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>123</v>
       </c>
@@ -1121,8 +1196,23 @@
       <c r="AY7">
         <v>0</v>
       </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>124</v>
       </c>
@@ -1273,15 +1363,41 @@
       <c r="AY8">
         <v>0</v>
       </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
+  <mergeCells count="42">
+    <mergeCell ref="AZ3:BD3"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BC4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
     <mergeCell ref="AV3:AY3"/>
     <mergeCell ref="AV4:AW4"/>
     <mergeCell ref="AX4:AY4"/>
@@ -1291,6 +1407,12 @@
     <mergeCell ref="AN3:AQ3"/>
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
     <mergeCell ref="AB3:AE3"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
@@ -1301,22 +1423,9 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/tmp/data.xlsx
+++ b/tmp/data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="24">
   <si>
     <t>Nama Penyakit</t>
   </si>
@@ -85,12 +90,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,20 +154,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -171,6 +179,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -219,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,9 +263,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,6 +315,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,7 +511,7 @@
   <dimension ref="A3:BD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,526 +562,529 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2" t="s">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2" t="s">
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2" t="s">
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2" t="s">
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2" t="s">
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2" t="s">
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2" t="s">
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="3" t="s">
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
+      <c r="S4" s="5"/>
+      <c r="T4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
+      <c r="W4" s="5"/>
+      <c r="X4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2" t="s">
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2" t="s">
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2" t="s">
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2" t="s">
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2" t="s">
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2" t="s">
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3" t="s">
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="4" t="s">
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD5" s="1"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6">
         <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" t="s">
+        <v>23</v>
       </c>
       <c r="U6">
         <v>1</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
+      <c r="V6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>23</v>
       </c>
       <c r="AQ6">
         <v>1</v>
       </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
+      <c r="AR6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>23</v>
       </c>
       <c r="BA6">
         <v>1</v>
       </c>
-      <c r="BB6">
-        <v>0</v>
+      <c r="BB6" t="s">
+        <v>23</v>
       </c>
       <c r="BC6">
         <v>1</v>
@@ -1046,6 +1094,9 @@
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
       <c r="B7">
         <v>123</v>
       </c>
@@ -1213,6 +1264,9 @@
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
       <c r="B8">
         <v>124</v>
       </c>
@@ -1381,6 +1435,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
     <mergeCell ref="AZ3:BD3"/>
     <mergeCell ref="AZ4:BA4"/>
     <mergeCell ref="BB4:BC4"/>
@@ -1397,32 +1477,6 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="P3:S3"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/tmp/data.xlsx
+++ b/tmp/data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>Nama Penyakit</t>
   </si>
@@ -90,15 +85,12 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,20 +146,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -179,9 +171,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -230,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,26 +252,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,23 +287,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,7 +466,7 @@
   <dimension ref="A3:BD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,529 +517,526 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5" t="s">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5" t="s">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5" t="s">
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5" t="s">
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5" t="s">
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5" t="s">
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5" t="s">
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="4" t="s">
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5" t="s">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5" t="s">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5" t="s">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5" t="s">
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5" t="s">
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5" t="s">
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5" t="s">
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5" t="s">
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4" t="s">
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="1" t="s">
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD5" s="1"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD5" s="4"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
       <c r="B6">
         <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" t="s">
-        <v>23</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
       </c>
       <c r="U6">
         <v>1</v>
       </c>
-      <c r="V6" t="s">
-        <v>23</v>
-      </c>
-      <c r="W6" t="s">
-        <v>23</v>
-      </c>
-      <c r="X6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>23</v>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>1</v>
       </c>
-      <c r="AR6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>23</v>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
       </c>
       <c r="BA6">
         <v>1</v>
       </c>
-      <c r="BB6" t="s">
-        <v>23</v>
+      <c r="BB6">
+        <v>0</v>
       </c>
       <c r="BC6">
         <v>1</v>
@@ -1094,9 +1046,6 @@
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
       <c r="B7">
         <v>123</v>
       </c>
@@ -1264,9 +1213,6 @@
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
       <c r="B8">
         <v>124</v>
       </c>
@@ -1435,6 +1381,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="AZ3:BD3"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BC4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -1451,32 +1423,6 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AZ3:BD3"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BB4:BC4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/tmp/data.xlsx
+++ b/tmp/data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="24">
   <si>
     <t>Nama Penyakit</t>
   </si>
@@ -72,25 +77,28 @@
     <t>Kode</t>
   </si>
   <si>
-    <t>Bisul</t>
-  </si>
-  <si>
-    <t>Cacar</t>
-  </si>
-  <si>
-    <t>ODGJ</t>
-  </si>
-  <si>
     <t>JML</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>asadasd</t>
+  </si>
+  <si>
+    <t>adddd</t>
+  </si>
+  <si>
+    <t>sssss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,20 +154,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -171,6 +179,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -219,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,9 +263,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,6 +315,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,7 +511,7 @@
   <dimension ref="A3:BD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,526 +562,529 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2" t="s">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2" t="s">
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2" t="s">
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2" t="s">
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2" t="s">
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2" t="s">
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2" t="s">
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
+      <c r="S4" s="5"/>
+      <c r="T4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
+      <c r="W4" s="5"/>
+      <c r="X4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2" t="s">
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2" t="s">
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2" t="s">
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2" t="s">
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2" t="s">
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2" t="s">
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3" t="s">
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="4" t="s">
-        <v>21</v>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD5" s="1"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6">
         <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" t="s">
+        <v>20</v>
       </c>
       <c r="U6">
         <v>1</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
+      <c r="V6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>20</v>
       </c>
       <c r="AQ6">
         <v>1</v>
       </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
+      <c r="AR6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>20</v>
       </c>
       <c r="BA6">
         <v>1</v>
       </c>
-      <c r="BB6">
-        <v>0</v>
+      <c r="BB6" t="s">
+        <v>20</v>
       </c>
       <c r="BC6">
         <v>1</v>
@@ -1046,11 +1094,14 @@
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
       <c r="B7">
         <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1213,11 +1264,14 @@
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
       <c r="B8">
         <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1381,6 +1435,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
     <mergeCell ref="AZ3:BD3"/>
     <mergeCell ref="AZ4:BA4"/>
     <mergeCell ref="BB4:BC4"/>
@@ -1397,32 +1477,6 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="P3:S3"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/tmp/data.xlsx
+++ b/tmp/data.xlsx
@@ -77,19 +77,19 @@
     <t>Kode</t>
   </si>
   <si>
+    <t>Bisul</t>
+  </si>
+  <si>
+    <t>Cacar</t>
+  </si>
+  <si>
+    <t>ODGJ</t>
+  </si>
+  <si>
     <t>JML</t>
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>asadasd</t>
-  </si>
-  <si>
-    <t>adddd</t>
-  </si>
-  <si>
-    <t>sssss</t>
   </si>
   <si>
     <t>No</t>
@@ -125,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,119 +148,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,7 +511,7 @@
   <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="AW10" sqref="AW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,365 +562,365 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="4" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="4" t="s">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="4" t="s">
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="4" t="s">
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="AK1" s="5"/>
       <c r="AL1" s="5"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="4" t="s">
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="4" t="s">
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="4" t="s">
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AW1" s="5"/>
       <c r="AX1" s="5"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="11"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="4" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="4" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="4" t="s">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="4" t="s">
+      <c r="W2" s="5"/>
+      <c r="X2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="4" t="s">
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="4" t="s">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="4" t="s">
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="4" t="s">
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="4" t="s">
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="4" t="s">
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="10" t="s">
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BC2" s="11"/>
+      <c r="BC2" s="4"/>
       <c r="BD2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC3" s="2" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="BD3" s="1"/>
@@ -1025,160 +933,160 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4">
         <v>1</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4">
         <v>1</v>
@@ -1195,160 +1103,160 @@
         <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5">
         <v>1</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5">
         <v>1</v>
@@ -1365,160 +1273,160 @@
         <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6">
         <v>1</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6">
         <v>1</v>
@@ -1529,6 +1437,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="BB2:BC2"/>
@@ -1545,35 +1479,9 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
